--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3193342.166310436</v>
+        <v>3191007.055108455</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>47.50015712509533</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>218.2275692240557</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>133.0346738496632</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>141.739137425401</v>
       </c>
       <c r="F8" t="n">
-        <v>190.2887505670073</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>71.98153210089519</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161675</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>880.6454412161675</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>880.6454412161675</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
-        <v>880.6454412161675</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>469.6595364265599</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161675</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4419,13 +4419,13 @@
         <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1422.059675386301</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936618</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>2341.907440295049</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>2052.490270258088</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1824.500719360071</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1603.708140216541</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
         <v>533.3251860078259</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2094.516021098447</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2094.516021098447</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.516021098447</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.050262837367</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.910930861555</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
         <v>219.2332512597245</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352531</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1032.061124352531</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>673.7954257457802</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>673.7954257457802</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962194</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138263</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,19 +5282,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.25823202432855</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883069234</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282443</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228661</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.182128440193302e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.366782716009765e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744406</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744317</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744308</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443614995</v>
+        <v>-624800.1443614997</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.6392144201</v>
+        <v>489951.6392144202</v>
       </c>
       <c r="D6" t="n">
         <v>329936.1764664209</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.026705749</v>
+        <v>270956.2887803132</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876679</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.4885131043</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131043</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="J6" t="n">
-        <v>428798.3107031213</v>
+        <v>428763.5727776861</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="L6" t="n">
-        <v>548109.5185049133</v>
+        <v>548074.7805794777</v>
       </c>
       <c r="M6" t="n">
-        <v>511348.4605775924</v>
+        <v>511313.722652157</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876677</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.750587669</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876685</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0475456478587</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.91007409977234</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>118.0105762787988</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="F8" t="n">
-        <v>216.5872951747041</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>94.04427615813303</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.604658557802081e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>528.7932908500031</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>405.4553316172024</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660945</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35030,7 +35030,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>386.6592569279849</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
